--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190115-acs_housing_costs/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B6A25-1AEB-A84C-A626-7234C6DC1B8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07335777-7612-AC49-A203-856FDE32C4BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23400" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="burdened" sheetId="1" r:id="rId1"/>
-    <sheet name="source" sheetId="2" r:id="rId2"/>
-    <sheet name="layout" sheetId="3" r:id="rId3"/>
+    <sheet name="scatter" sheetId="4" r:id="rId2"/>
+    <sheet name="income" sheetId="5" r:id="rId3"/>
+    <sheet name="source" sheetId="2" r:id="rId4"/>
+    <sheet name="layout" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="440">
   <si>
     <t>GEOID10</t>
   </si>
@@ -1313,6 +1315,42 @@
   </si>
   <si>
     <t>Cost-burden status 2017</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>&lt; $20000</t>
+  </si>
+  <si>
+    <t>$35000 to $49000</t>
+  </si>
+  <si>
+    <t>$50000 to $74999</t>
+  </si>
+  <si>
+    <t>$75000+</t>
+  </si>
+  <si>
+    <t>pop2017</t>
+  </si>
+  <si>
+    <t>burden2017</t>
+  </si>
+  <si>
+    <t>pop2012</t>
+  </si>
+  <si>
+    <t>burden2012</t>
+  </si>
+  <si>
+    <t>rate2017</t>
+  </si>
+  <si>
+    <t>rate2012</t>
+  </si>
+  <si>
+    <t>$20000 to $34000</t>
   </si>
 </sst>
 </file>
@@ -1796,9 +1834,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2156,11 +2195,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12397,6 +12444,4240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE30749-BA6E-7749-AFCD-B866F27F0314}">
+  <dimension ref="A1:EK193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:BM11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>55382</v>
+      </c>
+      <c r="B2">
+        <v>74706</v>
+      </c>
+      <c r="C2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <f>C2/100</f>
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>55372</v>
+      </c>
+      <c r="B3">
+        <v>104191</v>
+      </c>
+      <c r="C3">
+        <v>28.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3/100</f>
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>55378</v>
+      </c>
+      <c r="B4">
+        <v>103740</v>
+      </c>
+      <c r="C4">
+        <v>29.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>55379</v>
+      </c>
+      <c r="B5">
+        <v>84043</v>
+      </c>
+      <c r="C5">
+        <v>27.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>56071</v>
+      </c>
+      <c r="B6">
+        <v>82444</v>
+      </c>
+      <c r="C6">
+        <v>25.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>55397</v>
+      </c>
+      <c r="B7">
+        <v>73036</v>
+      </c>
+      <c r="C7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.19399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>55008</v>
+      </c>
+      <c r="B8">
+        <v>60958</v>
+      </c>
+      <c r="C8">
+        <v>29.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.19399999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.27699999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.23</v>
+      </c>
+      <c r="T8">
+        <v>0.253</v>
+      </c>
+      <c r="U8">
+        <v>0.249</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="Y8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.253</v>
+      </c>
+      <c r="AE8">
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.247</v>
+      </c>
+      <c r="AG8">
+        <v>0.27699999999999997</v>
+      </c>
+      <c r="AH8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AI8">
+        <v>0.245</v>
+      </c>
+      <c r="AJ8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AK8">
+        <v>0.247</v>
+      </c>
+      <c r="AL8">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AN8">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="AO8">
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="AP8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AR8">
+        <v>0.27</v>
+      </c>
+      <c r="AS8">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AT8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AV8">
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="AW8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="AY8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AZ8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="BA8">
+        <v>0.25</v>
+      </c>
+      <c r="BB8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.23</v>
+      </c>
+      <c r="BE8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="BF8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="BG8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="BI8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BJ8">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="BL8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="BM8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="BN8">
+        <v>0.27</v>
+      </c>
+      <c r="BO8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="BP8">
+        <v>0.25</v>
+      </c>
+      <c r="BQ8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="BR8">
+        <v>0.254</v>
+      </c>
+      <c r="BS8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="BT8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="BU8">
+        <v>0.2</v>
+      </c>
+      <c r="BV8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="BW8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="BX8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="BZ8">
+        <v>0.247</v>
+      </c>
+      <c r="CA8">
+        <v>0.27</v>
+      </c>
+      <c r="CB8">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="CE8">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="CF8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="CG8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="CH8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="CJ8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="CK8">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="CL8">
+        <v>0.255</v>
+      </c>
+      <c r="CM8">
+        <v>0.24</v>
+      </c>
+      <c r="CN8">
+        <v>0.249</v>
+      </c>
+      <c r="CO8">
+        <v>0.25</v>
+      </c>
+      <c r="CP8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="CQ8">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="CS8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="CT8">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="CU8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="CV8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="CW8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="CX8">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="CY8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="CZ8">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="DA8">
+        <v>0.255</v>
+      </c>
+      <c r="DB8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="DC8">
+        <v>0.217</v>
+      </c>
+      <c r="DD8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="DE8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="DF8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="DG8">
+        <v>0.252</v>
+      </c>
+      <c r="DH8">
+        <v>0.26</v>
+      </c>
+      <c r="DI8">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="DJ8">
+        <v>0.25</v>
+      </c>
+      <c r="DK8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="DL8">
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="DM8">
+        <v>0.255</v>
+      </c>
+      <c r="DN8">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="DO8">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="DP8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="DQ8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="DR8">
+        <v>0.24</v>
+      </c>
+      <c r="DS8">
+        <v>0.27</v>
+      </c>
+      <c r="DT8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="DU8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="DV8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="DW8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="DX8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="DY8">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="DZ8">
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="EA8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="EB8">
+        <v>0.26899999999999996</v>
+      </c>
+      <c r="EC8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="ED8">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="EE8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="EF8">
+        <v>0.24600000000000002</v>
+      </c>
+      <c r="EG8">
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="EH8">
+        <v>0.253</v>
+      </c>
+      <c r="EI8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="EJ8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="EK8">
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>55013</v>
+      </c>
+      <c r="B9">
+        <v>81183</v>
+      </c>
+      <c r="C9">
+        <v>27.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.27699999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>55025</v>
+      </c>
+      <c r="B10">
+        <v>79587</v>
+      </c>
+      <c r="C10">
+        <v>26.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>55032</v>
+      </c>
+      <c r="B11">
+        <v>79250</v>
+      </c>
+      <c r="C11">
+        <v>27.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.379</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.32</v>
+      </c>
+      <c r="K11">
+        <v>0.314</v>
+      </c>
+      <c r="L11">
+        <v>0.317</v>
+      </c>
+      <c r="M11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.34700000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.314</v>
+      </c>
+      <c r="V11">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="W11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.32899999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>0.316</v>
+      </c>
+      <c r="AA11">
+        <v>0.32</v>
+      </c>
+      <c r="AB11">
+        <v>0.307</v>
+      </c>
+      <c r="AC11">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.317</v>
+      </c>
+      <c r="AF11">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.307</v>
+      </c>
+      <c r="AH11">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.40399999999999997</v>
+      </c>
+      <c r="AJ11">
+        <v>0.36</v>
+      </c>
+      <c r="AK11">
+        <v>0.39899999999999997</v>
+      </c>
+      <c r="AL11">
+        <v>0.311</v>
+      </c>
+      <c r="AM11">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.33</v>
+      </c>
+      <c r="AO11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>0.318</v>
+      </c>
+      <c r="AQ11">
+        <v>0.32799999999999996</v>
+      </c>
+      <c r="AR11">
+        <v>0.318</v>
+      </c>
+      <c r="AS11">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.31</v>
+      </c>
+      <c r="AU11">
+        <v>0.318</v>
+      </c>
+      <c r="AV11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AW11">
+        <v>0.312</v>
+      </c>
+      <c r="AX11">
+        <v>0.32799999999999996</v>
+      </c>
+      <c r="AY11">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AZ11">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="BB11">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="BC11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BD11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.39399999999999996</v>
+      </c>
+      <c r="BF11">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="BH11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="BI11">
+        <v>0.318</v>
+      </c>
+      <c r="BJ11">
+        <v>0.39</v>
+      </c>
+      <c r="BK11">
+        <v>0.34700000000000003</v>
+      </c>
+      <c r="BL11">
+        <v>0.307</v>
+      </c>
+      <c r="BM11">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>55045</v>
+      </c>
+      <c r="B12">
+        <v>79114</v>
+      </c>
+      <c r="C12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>55080</v>
+      </c>
+      <c r="B13">
+        <v>73571</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>55092</v>
+      </c>
+      <c r="B14">
+        <v>80323</v>
+      </c>
+      <c r="C14">
+        <v>25.3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>55033</v>
+      </c>
+      <c r="B15">
+        <v>71893</v>
+      </c>
+      <c r="C15">
+        <v>24.9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>55065</v>
+      </c>
+      <c r="B16">
+        <v>80050</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>56028</v>
+      </c>
+      <c r="B17">
+        <v>74766</v>
+      </c>
+      <c r="C17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>56096</v>
+      </c>
+      <c r="B18">
+        <v>55969</v>
+      </c>
+      <c r="C18">
+        <v>28.4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>55449</v>
+      </c>
+      <c r="B19">
+        <v>104161</v>
+      </c>
+      <c r="C19">
+        <v>29.4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>55432</v>
+      </c>
+      <c r="B20">
+        <v>57479</v>
+      </c>
+      <c r="C20">
+        <v>28.9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>55421</v>
+      </c>
+      <c r="B21">
+        <v>50250</v>
+      </c>
+      <c r="C21">
+        <v>28.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>55126</v>
+      </c>
+      <c r="B22">
+        <v>84422</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>55116</v>
+      </c>
+      <c r="B23">
+        <v>65518</v>
+      </c>
+      <c r="C23">
+        <v>29.4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>55318</v>
+      </c>
+      <c r="B24">
+        <v>83799</v>
+      </c>
+      <c r="C24">
+        <v>25.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>55322</v>
+      </c>
+      <c r="B25">
+        <v>87878</v>
+      </c>
+      <c r="C25">
+        <v>22.9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.22899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>55328</v>
+      </c>
+      <c r="B26">
+        <v>83108</v>
+      </c>
+      <c r="C26">
+        <v>24.7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>55331</v>
+      </c>
+      <c r="B27">
+        <v>117422</v>
+      </c>
+      <c r="C27">
+        <v>27.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.27699999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>55360</v>
+      </c>
+      <c r="B28">
+        <v>90667</v>
+      </c>
+      <c r="C28">
+        <v>23.1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>55367</v>
+      </c>
+      <c r="B29">
+        <v>63750</v>
+      </c>
+      <c r="C29">
+        <v>24.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>55368</v>
+      </c>
+      <c r="B30">
+        <v>58015</v>
+      </c>
+      <c r="C30">
+        <v>26.6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>55386</v>
+      </c>
+      <c r="B31">
+        <v>140946</v>
+      </c>
+      <c r="C31">
+        <v>24.7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>55387</v>
+      </c>
+      <c r="B32">
+        <v>90105</v>
+      </c>
+      <c r="C32">
+        <v>26.9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.26899999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>55114</v>
+      </c>
+      <c r="B33">
+        <v>43333</v>
+      </c>
+      <c r="C33">
+        <v>28.4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>55113</v>
+      </c>
+      <c r="B34">
+        <v>65323</v>
+      </c>
+      <c r="C34">
+        <v>26.9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.26899999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>55112</v>
+      </c>
+      <c r="B35">
+        <v>70311</v>
+      </c>
+      <c r="C35">
+        <v>29.1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>55108</v>
+      </c>
+      <c r="B36">
+        <v>66076</v>
+      </c>
+      <c r="C36">
+        <v>27.8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>56353</v>
+      </c>
+      <c r="B37">
+        <v>55938</v>
+      </c>
+      <c r="C37">
+        <v>28.4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>55105</v>
+      </c>
+      <c r="B38">
+        <v>83659</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>55104</v>
+      </c>
+      <c r="B39">
+        <v>57769</v>
+      </c>
+      <c r="C39">
+        <v>28.1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>55102</v>
+      </c>
+      <c r="B40">
+        <v>52981</v>
+      </c>
+      <c r="C40">
+        <v>26.3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>55101</v>
+      </c>
+      <c r="B41">
+        <v>48696</v>
+      </c>
+      <c r="C41">
+        <v>29.9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>55307</v>
+      </c>
+      <c r="B42">
+        <v>59000</v>
+      </c>
+      <c r="C42">
+        <v>27.9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.27899999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>55334</v>
+      </c>
+      <c r="B43">
+        <v>53548</v>
+      </c>
+      <c r="C43">
+        <v>23.6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>55335</v>
+      </c>
+      <c r="B44">
+        <v>55132</v>
+      </c>
+      <c r="C44">
+        <v>21.6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.21600000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>55338</v>
+      </c>
+      <c r="B45">
+        <v>62153</v>
+      </c>
+      <c r="C45">
+        <v>22.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>55339</v>
+      </c>
+      <c r="B46">
+        <v>78250</v>
+      </c>
+      <c r="C46">
+        <v>23.3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>55366</v>
+      </c>
+      <c r="B47">
+        <v>31989</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>55396</v>
+      </c>
+      <c r="B48">
+        <v>56548</v>
+      </c>
+      <c r="C48">
+        <v>23.6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>56044</v>
+      </c>
+      <c r="B49">
+        <v>70850</v>
+      </c>
+      <c r="C49">
+        <v>26.3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>56058</v>
+      </c>
+      <c r="B50">
+        <v>63021</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>55017</v>
+      </c>
+      <c r="B51">
+        <v>65583</v>
+      </c>
+      <c r="C51">
+        <v>26.3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>55040</v>
+      </c>
+      <c r="B52">
+        <v>73133</v>
+      </c>
+      <c r="C52">
+        <v>27.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>55005</v>
+      </c>
+      <c r="B53">
+        <v>84598</v>
+      </c>
+      <c r="C53">
+        <v>22.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>55011</v>
+      </c>
+      <c r="B54">
+        <v>91008</v>
+      </c>
+      <c r="C54">
+        <v>27.1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>55014</v>
+      </c>
+      <c r="B55">
+        <v>86576</v>
+      </c>
+      <c r="C55">
+        <v>26.6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55070</v>
+      </c>
+      <c r="B56">
+        <v>77721</v>
+      </c>
+      <c r="C56">
+        <v>26.2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55303</v>
+      </c>
+      <c r="B57">
+        <v>75803</v>
+      </c>
+      <c r="C57">
+        <v>28.6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55304</v>
+      </c>
+      <c r="B58">
+        <v>102400</v>
+      </c>
+      <c r="C58">
+        <v>28.5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56017</v>
+      </c>
+      <c r="B59">
+        <v>67663</v>
+      </c>
+      <c r="C59">
+        <v>29.7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56050</v>
+      </c>
+      <c r="B60">
+        <v>63071</v>
+      </c>
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>55016</v>
+      </c>
+      <c r="B61">
+        <v>89585</v>
+      </c>
+      <c r="C61">
+        <v>29.7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>55043</v>
+      </c>
+      <c r="B62">
+        <v>80859</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>55055</v>
+      </c>
+      <c r="B63">
+        <v>63445</v>
+      </c>
+      <c r="C63">
+        <v>26.1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>55071</v>
+      </c>
+      <c r="B64">
+        <v>70670</v>
+      </c>
+      <c r="C64">
+        <v>25.4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>55125</v>
+      </c>
+      <c r="B65">
+        <v>97825</v>
+      </c>
+      <c r="C65">
+        <v>25.6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>55129</v>
+      </c>
+      <c r="B66">
+        <v>122854</v>
+      </c>
+      <c r="C66">
+        <v>23.7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>56330</v>
+      </c>
+      <c r="B67">
+        <v>66111</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">C67/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>55024</v>
+      </c>
+      <c r="B68">
+        <v>88789</v>
+      </c>
+      <c r="C68">
+        <v>25.9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>55031</v>
+      </c>
+      <c r="B69">
+        <v>98929</v>
+      </c>
+      <c r="C69">
+        <v>26.3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>55068</v>
+      </c>
+      <c r="B70">
+        <v>92465</v>
+      </c>
+      <c r="C70">
+        <v>27.3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>55075</v>
+      </c>
+      <c r="B71">
+        <v>57969</v>
+      </c>
+      <c r="C71">
+        <v>29.7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>55077</v>
+      </c>
+      <c r="B72">
+        <v>74688</v>
+      </c>
+      <c r="C72">
+        <v>24.7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>55120</v>
+      </c>
+      <c r="B73">
+        <v>94798</v>
+      </c>
+      <c r="C73">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>55121</v>
+      </c>
+      <c r="B74">
+        <v>69191</v>
+      </c>
+      <c r="C74">
+        <v>22.7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.22699999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>55122</v>
+      </c>
+      <c r="B75">
+        <v>75931</v>
+      </c>
+      <c r="C75">
+        <v>26.7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>55123</v>
+      </c>
+      <c r="B76">
+        <v>115098</v>
+      </c>
+      <c r="C76">
+        <v>25.9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>55124</v>
+      </c>
+      <c r="B77">
+        <v>85181</v>
+      </c>
+      <c r="C77">
+        <v>28.7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>55150</v>
+      </c>
+      <c r="B78">
+        <v>68125</v>
+      </c>
+      <c r="C78">
+        <v>23.6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>55306</v>
+      </c>
+      <c r="B79">
+        <v>68542</v>
+      </c>
+      <c r="C79">
+        <v>26.6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>55337</v>
+      </c>
+      <c r="B80">
+        <v>67065</v>
+      </c>
+      <c r="C80">
+        <v>29.7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>55390</v>
+      </c>
+      <c r="B81">
+        <v>75972</v>
+      </c>
+      <c r="C81">
+        <v>25.9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>55308</v>
+      </c>
+      <c r="B82">
+        <v>91636</v>
+      </c>
+      <c r="C82">
+        <v>23.6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>55319</v>
+      </c>
+      <c r="B83">
+        <v>75581</v>
+      </c>
+      <c r="C83">
+        <v>26.9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>0.26899999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>55371</v>
+      </c>
+      <c r="B84">
+        <v>63652</v>
+      </c>
+      <c r="C84">
+        <v>25.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>56069</v>
+      </c>
+      <c r="B85">
+        <v>65583</v>
+      </c>
+      <c r="C85">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>55301</v>
+      </c>
+      <c r="B86">
+        <v>97688</v>
+      </c>
+      <c r="C86">
+        <v>24.9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>55321</v>
+      </c>
+      <c r="B87">
+        <v>62798</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>55349</v>
+      </c>
+      <c r="B88">
+        <v>60365</v>
+      </c>
+      <c r="C88">
+        <v>25.8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>55362</v>
+      </c>
+      <c r="B89">
+        <v>73203</v>
+      </c>
+      <c r="C89">
+        <v>28.1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>55363</v>
+      </c>
+      <c r="B90">
+        <v>70304</v>
+      </c>
+      <c r="C90">
+        <v>26.3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>55373</v>
+      </c>
+      <c r="B91">
+        <v>75476</v>
+      </c>
+      <c r="C91">
+        <v>23.6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>55374</v>
+      </c>
+      <c r="B92">
+        <v>118594</v>
+      </c>
+      <c r="C92">
+        <v>29.5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>55376</v>
+      </c>
+      <c r="B93">
+        <v>102275</v>
+      </c>
+      <c r="C93">
+        <v>23.7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>56386</v>
+      </c>
+      <c r="B94">
+        <v>39107</v>
+      </c>
+      <c r="C94">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>56363</v>
+      </c>
+      <c r="B95">
+        <v>52917</v>
+      </c>
+      <c r="C95">
+        <v>26.8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>56359</v>
+      </c>
+      <c r="B96">
+        <v>40847</v>
+      </c>
+      <c r="C96">
+        <v>29.8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>55401</v>
+      </c>
+      <c r="B97">
+        <v>90025</v>
+      </c>
+      <c r="C97">
+        <v>24.4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>55369</v>
+      </c>
+      <c r="B98">
+        <v>82279</v>
+      </c>
+      <c r="C98">
+        <v>29.8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>55364</v>
+      </c>
+      <c r="B99">
+        <v>102770</v>
+      </c>
+      <c r="C99">
+        <v>25.5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>55359</v>
+      </c>
+      <c r="B100">
+        <v>92736</v>
+      </c>
+      <c r="C100">
+        <v>27.6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>55347</v>
+      </c>
+      <c r="B101">
+        <v>131004</v>
+      </c>
+      <c r="C101">
+        <v>21.7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>55346</v>
+      </c>
+      <c r="B102">
+        <v>108866</v>
+      </c>
+      <c r="C102">
+        <v>26.6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>55345</v>
+      </c>
+      <c r="B103">
+        <v>96672</v>
+      </c>
+      <c r="C103">
+        <v>29.9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>55344</v>
+      </c>
+      <c r="B104">
+        <v>66928</v>
+      </c>
+      <c r="C104">
+        <v>26.7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>55343</v>
+      </c>
+      <c r="B105">
+        <v>59430</v>
+      </c>
+      <c r="C105">
+        <v>25.2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>55340</v>
+      </c>
+      <c r="B106">
+        <v>116513</v>
+      </c>
+      <c r="C106">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>55311</v>
+      </c>
+      <c r="B107">
+        <v>122582</v>
+      </c>
+      <c r="C107">
+        <v>28.6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>55305</v>
+      </c>
+      <c r="B108">
+        <v>72332</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>55447</v>
+      </c>
+      <c r="B109">
+        <v>87552</v>
+      </c>
+      <c r="C109">
+        <v>25.6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>55446</v>
+      </c>
+      <c r="B110">
+        <v>106165</v>
+      </c>
+      <c r="C110">
+        <v>29.6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>0.29600000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>55445</v>
+      </c>
+      <c r="B111">
+        <v>81092</v>
+      </c>
+      <c r="C111">
+        <v>25.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>55444</v>
+      </c>
+      <c r="B112">
+        <v>75057</v>
+      </c>
+      <c r="C112">
+        <v>26.2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>55442</v>
+      </c>
+      <c r="B113">
+        <v>103606</v>
+      </c>
+      <c r="C113">
+        <v>27.2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>55441</v>
+      </c>
+      <c r="B114">
+        <v>72581</v>
+      </c>
+      <c r="C114">
+        <v>29.3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>55439</v>
+      </c>
+      <c r="B115">
+        <v>126572</v>
+      </c>
+      <c r="C115">
+        <v>22.5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>55438</v>
+      </c>
+      <c r="B116">
+        <v>83599</v>
+      </c>
+      <c r="C116">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>55437</v>
+      </c>
+      <c r="B117">
+        <v>72284</v>
+      </c>
+      <c r="C117">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>55436</v>
+      </c>
+      <c r="B118">
+        <v>96960</v>
+      </c>
+      <c r="C118">
+        <v>29.9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>55435</v>
+      </c>
+      <c r="B119">
+        <v>68063</v>
+      </c>
+      <c r="C119">
+        <v>24.3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>55431</v>
+      </c>
+      <c r="B120">
+        <v>74406</v>
+      </c>
+      <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>55427</v>
+      </c>
+      <c r="B121">
+        <v>74132</v>
+      </c>
+      <c r="C121">
+        <v>24.4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>55426</v>
+      </c>
+      <c r="B122">
+        <v>67467</v>
+      </c>
+      <c r="C122">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>55425</v>
+      </c>
+      <c r="B123">
+        <v>57500</v>
+      </c>
+      <c r="C123">
+        <v>27.2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>55423</v>
+      </c>
+      <c r="B124">
+        <v>59740</v>
+      </c>
+      <c r="C124">
+        <v>29.6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>0.29600000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>55420</v>
+      </c>
+      <c r="B125">
+        <v>57641</v>
+      </c>
+      <c r="C125">
+        <v>29.4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>55419</v>
+      </c>
+      <c r="B126">
+        <v>100306</v>
+      </c>
+      <c r="C126">
+        <v>26.9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>0.26899999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>55416</v>
+      </c>
+      <c r="B127">
+        <v>78908</v>
+      </c>
+      <c r="C127">
+        <v>23.5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>55415</v>
+      </c>
+      <c r="B128">
+        <v>83793</v>
+      </c>
+      <c r="C128">
+        <v>23.6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.23600000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>55413</v>
+      </c>
+      <c r="B129">
+        <v>54036</v>
+      </c>
+      <c r="C129">
+        <v>26.8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>55410</v>
+      </c>
+      <c r="B130">
+        <v>106438</v>
+      </c>
+      <c r="C130">
+        <v>24.6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>0.24600000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>55409</v>
+      </c>
+      <c r="B131">
+        <v>71408</v>
+      </c>
+      <c r="C131">
+        <v>22.7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E193" si="2">C131/100</f>
+        <v>0.22699999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>55408</v>
+      </c>
+      <c r="B132">
+        <v>52466</v>
+      </c>
+      <c r="C132">
+        <v>25.3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>55406</v>
+      </c>
+      <c r="B133">
+        <v>64112</v>
+      </c>
+      <c r="C133">
+        <v>29.2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>55405</v>
+      </c>
+      <c r="B134">
+        <v>56365</v>
+      </c>
+      <c r="C134">
+        <v>25.8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>55403</v>
+      </c>
+      <c r="B135">
+        <v>42750</v>
+      </c>
+      <c r="C135">
+        <v>28.8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>55020</v>
+      </c>
+      <c r="B136">
+        <v>117857</v>
+      </c>
+      <c r="C136">
+        <v>37.9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>55044</v>
+      </c>
+      <c r="B137">
+        <v>108839</v>
+      </c>
+      <c r="C137">
+        <v>30</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>55054</v>
+      </c>
+      <c r="B138">
+        <v>121000</v>
+      </c>
+      <c r="C138">
+        <v>32</v>
+      </c>
+      <c r="D138" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>55352</v>
+      </c>
+      <c r="B139">
+        <v>72778</v>
+      </c>
+      <c r="C139">
+        <v>31.4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>56011</v>
+      </c>
+      <c r="B140">
+        <v>82298</v>
+      </c>
+      <c r="C140">
+        <v>31.7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>55056</v>
+      </c>
+      <c r="B141">
+        <v>75296</v>
+      </c>
+      <c r="C141">
+        <v>34.1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>55069</v>
+      </c>
+      <c r="B142">
+        <v>55085</v>
+      </c>
+      <c r="C142">
+        <v>30.1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>55074</v>
+      </c>
+      <c r="B143">
+        <v>72727</v>
+      </c>
+      <c r="C143">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>0.34700000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>55079</v>
+      </c>
+      <c r="B144">
+        <v>83531</v>
+      </c>
+      <c r="C144">
+        <v>32.1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>55084</v>
+      </c>
+      <c r="B145">
+        <v>61731</v>
+      </c>
+      <c r="C145">
+        <v>38.6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>55418</v>
+      </c>
+      <c r="B146">
+        <v>64180</v>
+      </c>
+      <c r="C146">
+        <v>30.2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>55130</v>
+      </c>
+      <c r="B147">
+        <v>33697</v>
+      </c>
+      <c r="C147">
+        <v>32.6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>55127</v>
+      </c>
+      <c r="B148">
+        <v>94780</v>
+      </c>
+      <c r="C148">
+        <v>30.2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>55119</v>
+      </c>
+      <c r="B149">
+        <v>54646</v>
+      </c>
+      <c r="C149">
+        <v>31.4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>55118</v>
+      </c>
+      <c r="B150">
+        <v>64306</v>
+      </c>
+      <c r="C150">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D150" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>0.33299999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>55117</v>
+      </c>
+      <c r="B151">
+        <v>48244</v>
+      </c>
+      <c r="C151">
+        <v>34.1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>55317</v>
+      </c>
+      <c r="B152">
+        <v>115461</v>
+      </c>
+      <c r="C152">
+        <v>32.9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>55375</v>
+      </c>
+      <c r="B153">
+        <v>113500</v>
+      </c>
+      <c r="C153">
+        <v>42.9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>55110</v>
+      </c>
+      <c r="B154">
+        <v>77834</v>
+      </c>
+      <c r="C154">
+        <v>31.6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>55109</v>
+      </c>
+      <c r="B155">
+        <v>61100</v>
+      </c>
+      <c r="C155">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>55107</v>
+      </c>
+      <c r="B156">
+        <v>50870</v>
+      </c>
+      <c r="C156">
+        <v>30.7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>55106</v>
+      </c>
+      <c r="B157">
+        <v>47931</v>
+      </c>
+      <c r="C157">
+        <v>33.4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>0.33399999999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>55103</v>
+      </c>
+      <c r="B158">
+        <v>32922</v>
+      </c>
+      <c r="C158">
+        <v>32.4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>55038</v>
+      </c>
+      <c r="B159">
+        <v>95671</v>
+      </c>
+      <c r="C159">
+        <v>31.7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>55433</v>
+      </c>
+      <c r="B160">
+        <v>63445</v>
+      </c>
+      <c r="C160">
+        <v>30.1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>55434</v>
+      </c>
+      <c r="B161">
+        <v>64612</v>
+      </c>
+      <c r="C161">
+        <v>30.7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>55448</v>
+      </c>
+      <c r="B162">
+        <v>74743</v>
+      </c>
+      <c r="C162">
+        <v>32.6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>56057</v>
+      </c>
+      <c r="B163">
+        <v>60047</v>
+      </c>
+      <c r="C163">
+        <v>40.4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>0.40399999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>55003</v>
+      </c>
+      <c r="B164">
+        <v>75815</v>
+      </c>
+      <c r="C164">
+        <v>36</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>55047</v>
+      </c>
+      <c r="B165">
+        <v>101597</v>
+      </c>
+      <c r="C165">
+        <v>39.9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>0.39899999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>55082</v>
+      </c>
+      <c r="B166">
+        <v>88393</v>
+      </c>
+      <c r="C166">
+        <v>31.1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>55115</v>
+      </c>
+      <c r="B167">
+        <v>97051</v>
+      </c>
+      <c r="C167">
+        <v>31.9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>55128</v>
+      </c>
+      <c r="B168">
+        <v>67121</v>
+      </c>
+      <c r="C168">
+        <v>33</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>55076</v>
+      </c>
+      <c r="B169">
+        <v>72720</v>
+      </c>
+      <c r="C169">
+        <v>30.2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>55085</v>
+      </c>
+      <c r="B170">
+        <v>77500</v>
+      </c>
+      <c r="C170">
+        <v>31.8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>55309</v>
+      </c>
+      <c r="B171">
+        <v>85217</v>
+      </c>
+      <c r="C171">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>0.32799999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>55330</v>
+      </c>
+      <c r="B172">
+        <v>90522</v>
+      </c>
+      <c r="C172">
+        <v>31.8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>55398</v>
+      </c>
+      <c r="B173">
+        <v>85402</v>
+      </c>
+      <c r="C173">
+        <v>36.4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>56304</v>
+      </c>
+      <c r="B174">
+        <v>42425</v>
+      </c>
+      <c r="C174">
+        <v>31</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>55302</v>
+      </c>
+      <c r="B175">
+        <v>62321</v>
+      </c>
+      <c r="C175">
+        <v>31.8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>55313</v>
+      </c>
+      <c r="B176">
+        <v>73921</v>
+      </c>
+      <c r="C176">
+        <v>30.2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>55341</v>
+      </c>
+      <c r="B177">
+        <v>93525</v>
+      </c>
+      <c r="C177">
+        <v>31.2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>55358</v>
+      </c>
+      <c r="B178">
+        <v>71174</v>
+      </c>
+      <c r="C178">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D178" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>0.32799999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>55391</v>
+      </c>
+      <c r="B179">
+        <v>105162</v>
+      </c>
+      <c r="C179">
+        <v>30.4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>55384</v>
+      </c>
+      <c r="B180">
+        <v>48517</v>
+      </c>
+      <c r="C180">
+        <v>30.5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>55356</v>
+      </c>
+      <c r="B181">
+        <v>121469</v>
+      </c>
+      <c r="C181">
+        <v>30.3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>55316</v>
+      </c>
+      <c r="B182">
+        <v>89043</v>
+      </c>
+      <c r="C182">
+        <v>31.9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>55454</v>
+      </c>
+      <c r="B183">
+        <v>20088</v>
+      </c>
+      <c r="C183">
+        <v>34.1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>55443</v>
+      </c>
+      <c r="B184">
+        <v>80392</v>
+      </c>
+      <c r="C184">
+        <v>43.1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>55430</v>
+      </c>
+      <c r="B185">
+        <v>48872</v>
+      </c>
+      <c r="C185">
+        <v>39.4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>0.39399999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>55429</v>
+      </c>
+      <c r="B186">
+        <v>47127</v>
+      </c>
+      <c r="C186">
+        <v>34.9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>55428</v>
+      </c>
+      <c r="B187">
+        <v>51651</v>
+      </c>
+      <c r="C187">
+        <v>33.4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>0.33399999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>55422</v>
+      </c>
+      <c r="B188">
+        <v>68192</v>
+      </c>
+      <c r="C188">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>55417</v>
+      </c>
+      <c r="B189">
+        <v>79878</v>
+      </c>
+      <c r="C189">
+        <v>31.8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>55414</v>
+      </c>
+      <c r="B190">
+        <v>35394</v>
+      </c>
+      <c r="C190">
+        <v>39</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>55411</v>
+      </c>
+      <c r="B191">
+        <v>36512</v>
+      </c>
+      <c r="C191">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>0.34700000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>55407</v>
+      </c>
+      <c r="B192">
+        <v>58142</v>
+      </c>
+      <c r="C192">
+        <v>30.7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>55404</v>
+      </c>
+      <c r="B193">
+        <v>27434</v>
+      </c>
+      <c r="C193">
+        <v>30.7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>0.307</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D193">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB970B2-1977-094C-BE5D-94F9B1F6D2A5}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="2">
+        <v>82067</v>
+      </c>
+      <c r="C2" s="2">
+        <v>68833</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.83874151607832625</v>
+      </c>
+      <c r="E2" s="2">
+        <v>99002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>84911</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>0.857669542029454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="2">
+        <v>72108</v>
+      </c>
+      <c r="C3" s="2">
+        <v>58993</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3/B3</f>
+        <v>0.81812004215898371</v>
+      </c>
+      <c r="E3" s="2">
+        <v>75567</v>
+      </c>
+      <c r="F3" s="2">
+        <v>57440</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">F3/E3</f>
+        <v>0.76012015827014434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="2">
+        <v>65327</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32464</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.49694613253325576</v>
+      </c>
+      <c r="E4" s="2">
+        <v>57242</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20315</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.35489675413158173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78941</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15894</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.20134024144614332</v>
+      </c>
+      <c r="E5" s="2">
+        <v>58772</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6952</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.11828761995508065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="2">
+        <v>97065</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2453</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.5271725132643075E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>51653</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1517</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.9369058912357464E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4EB0A3-383B-DC46-A997-54C9CCB6AEF7}">
   <dimension ref="A2:C7"/>
   <sheetViews>
@@ -12441,11 +16722,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA2B63-5622-114D-A9B9-098C10478B40}">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190115-acs_housing_costs/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07335777-7612-AC49-A203-856FDE32C4BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AC8AA4-7369-7A41-8371-59BFB6E3CF02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23400" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23400" windowHeight="18120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="burdened" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="451">
   <si>
     <t>GEOID10</t>
   </si>
@@ -1351,6 +1351,39 @@
   </si>
   <si>
     <t>$20000 to $34000</t>
+  </si>
+  <si>
+    <t>burden_rate</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>Cost-burden status as rate 2017</t>
+  </si>
+  <si>
+    <t>Income bracket</t>
+  </si>
+  <si>
+    <t>Population of income bracket 2017</t>
+  </si>
+  <si>
+    <t>Cost-burdened renting population of income bracket 2017</t>
+  </si>
+  <si>
+    <t>Rate of cost burden renting 2017</t>
+  </si>
+  <si>
+    <t>Population of income bracket 2012</t>
+  </si>
+  <si>
+    <t>Cost-burdened renting population of income bracket 2012</t>
+  </si>
+  <si>
+    <t>Rate of cost burden renting 2012</t>
   </si>
 </sst>
 </file>
@@ -12445,10 +12478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE30749-BA6E-7749-AFCD-B866F27F0314}">
-  <dimension ref="A1:EK193"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:BM11"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12457,7 +12490,7 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12470,8 +12503,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>55382</v>
       </c>
@@ -12489,7 +12525,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>55372</v>
       </c>
@@ -12507,7 +12543,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>55378</v>
       </c>
@@ -12525,7 +12561,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>55379</v>
       </c>
@@ -12543,7 +12579,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>56071</v>
       </c>
@@ -12561,7 +12597,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55397</v>
       </c>
@@ -12579,7 +12615,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55008</v>
       </c>
@@ -12596,410 +12632,8 @@
         <f t="shared" si="0"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="H8">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="J8">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="K8">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="M8">
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.27699999999999997</v>
-      </c>
-      <c r="P8">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="S8">
-        <v>0.23</v>
-      </c>
-      <c r="T8">
-        <v>0.253</v>
-      </c>
-      <c r="U8">
-        <v>0.249</v>
-      </c>
-      <c r="V8">
-        <v>0.22</v>
-      </c>
-      <c r="W8">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="X8">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="Y8">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="Z8">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="AA8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="AB8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AC8">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="AD8">
-        <v>0.253</v>
-      </c>
-      <c r="AE8">
-        <v>0.22899999999999998</v>
-      </c>
-      <c r="AF8">
-        <v>0.247</v>
-      </c>
-      <c r="AG8">
-        <v>0.27699999999999997</v>
-      </c>
-      <c r="AH8">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AI8">
-        <v>0.245</v>
-      </c>
-      <c r="AJ8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="AK8">
-        <v>0.247</v>
-      </c>
-      <c r="AL8">
-        <v>0.26899999999999996</v>
-      </c>
-      <c r="AM8">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="AN8">
-        <v>0.26899999999999996</v>
-      </c>
-      <c r="AO8">
-        <v>0.29100000000000004</v>
-      </c>
-      <c r="AP8">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AQ8">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="AR8">
-        <v>0.27</v>
-      </c>
-      <c r="AS8">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="AT8">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="AU8">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="AV8">
-        <v>0.27899999999999997</v>
-      </c>
-      <c r="AW8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="AX8">
-        <v>0.21600000000000003</v>
-      </c>
-      <c r="AY8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="AZ8">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="BA8">
-        <v>0.25</v>
-      </c>
-      <c r="BB8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="BC8">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="BD8">
-        <v>0.23</v>
-      </c>
-      <c r="BE8">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="BF8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="BG8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="BH8">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="BI8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="BJ8">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="BK8">
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="BL8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="BM8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="BN8">
-        <v>0.27</v>
-      </c>
-      <c r="BO8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="BP8">
-        <v>0.25</v>
-      </c>
-      <c r="BQ8">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="BR8">
-        <v>0.254</v>
-      </c>
-      <c r="BS8">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="BT8">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="BU8">
-        <v>0.2</v>
-      </c>
-      <c r="BV8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="BW8">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="BX8">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="BY8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="BZ8">
-        <v>0.247</v>
-      </c>
-      <c r="CA8">
-        <v>0.27</v>
-      </c>
-      <c r="CB8">
-        <v>0.22699999999999998</v>
-      </c>
-      <c r="CC8">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="CD8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="CE8">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="CF8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="CG8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="CH8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="CI8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="CJ8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="CK8">
-        <v>0.26899999999999996</v>
-      </c>
-      <c r="CL8">
-        <v>0.255</v>
-      </c>
-      <c r="CM8">
-        <v>0.24</v>
-      </c>
-      <c r="CN8">
-        <v>0.249</v>
-      </c>
-      <c r="CO8">
-        <v>0.25</v>
-      </c>
-      <c r="CP8">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="CQ8">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="CR8">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="CS8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="CT8">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="CU8">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="CV8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="CW8">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="CX8">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="CY8">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="CZ8">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="DA8">
-        <v>0.255</v>
-      </c>
-      <c r="DB8">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="DC8">
-        <v>0.217</v>
-      </c>
-      <c r="DD8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="DE8">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="DF8">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="DG8">
-        <v>0.252</v>
-      </c>
-      <c r="DH8">
-        <v>0.26</v>
-      </c>
-      <c r="DI8">
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="DJ8">
-        <v>0.25</v>
-      </c>
-      <c r="DK8">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="DL8">
-        <v>0.29600000000000004</v>
-      </c>
-      <c r="DM8">
-        <v>0.255</v>
-      </c>
-      <c r="DN8">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="DO8">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="DP8">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="DQ8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="DR8">
-        <v>0.24</v>
-      </c>
-      <c r="DS8">
-        <v>0.27</v>
-      </c>
-      <c r="DT8">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="DU8">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="DV8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="DW8">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="DX8">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="DY8">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="DZ8">
-        <v>0.29600000000000004</v>
-      </c>
-      <c r="EA8">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="EB8">
-        <v>0.26899999999999996</v>
-      </c>
-      <c r="EC8">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="ED8">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="EE8">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="EF8">
-        <v>0.24600000000000002</v>
-      </c>
-      <c r="EG8">
-        <v>0.22699999999999998</v>
-      </c>
-      <c r="EH8">
-        <v>0.253</v>
-      </c>
-      <c r="EI8">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="EJ8">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="EK8">
-        <v>0.28800000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>55013</v>
       </c>
@@ -13017,7 +12651,7 @@
         <v>0.27699999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>55025</v>
       </c>
@@ -13035,7 +12669,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>55032</v>
       </c>
@@ -13052,182 +12686,8 @@
         <f t="shared" si="0"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="H11">
-        <v>0.379</v>
-      </c>
-      <c r="I11">
-        <v>0.3</v>
-      </c>
-      <c r="J11">
-        <v>0.32</v>
-      </c>
-      <c r="K11">
-        <v>0.314</v>
-      </c>
-      <c r="L11">
-        <v>0.317</v>
-      </c>
-      <c r="M11">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="N11">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.34700000000000003</v>
-      </c>
-      <c r="P11">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="R11">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="T11">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="U11">
-        <v>0.314</v>
-      </c>
-      <c r="V11">
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="W11">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="X11">
-        <v>0.32899999999999996</v>
-      </c>
-      <c r="Y11">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="Z11">
-        <v>0.316</v>
-      </c>
-      <c r="AA11">
-        <v>0.32</v>
-      </c>
-      <c r="AB11">
-        <v>0.307</v>
-      </c>
-      <c r="AC11">
-        <v>0.33399999999999996</v>
-      </c>
-      <c r="AD11">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="AE11">
-        <v>0.317</v>
-      </c>
-      <c r="AF11">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="AG11">
-        <v>0.307</v>
-      </c>
-      <c r="AH11">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="AI11">
-        <v>0.40399999999999997</v>
-      </c>
-      <c r="AJ11">
-        <v>0.36</v>
-      </c>
-      <c r="AK11">
-        <v>0.39899999999999997</v>
-      </c>
-      <c r="AL11">
-        <v>0.311</v>
-      </c>
-      <c r="AM11">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="AN11">
-        <v>0.33</v>
-      </c>
-      <c r="AO11">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AP11">
-        <v>0.318</v>
-      </c>
-      <c r="AQ11">
-        <v>0.32799999999999996</v>
-      </c>
-      <c r="AR11">
-        <v>0.318</v>
-      </c>
-      <c r="AS11">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="AT11">
-        <v>0.31</v>
-      </c>
-      <c r="AU11">
-        <v>0.318</v>
-      </c>
-      <c r="AV11">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AW11">
-        <v>0.312</v>
-      </c>
-      <c r="AX11">
-        <v>0.32799999999999996</v>
-      </c>
-      <c r="AY11">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="AZ11">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="BA11">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="BB11">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="BC11">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="BD11">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="BE11">
-        <v>0.39399999999999996</v>
-      </c>
-      <c r="BF11">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="BG11">
-        <v>0.33399999999999996</v>
-      </c>
-      <c r="BH11">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="BI11">
-        <v>0.318</v>
-      </c>
-      <c r="BJ11">
-        <v>0.39</v>
-      </c>
-      <c r="BK11">
-        <v>0.34700000000000003</v>
-      </c>
-      <c r="BL11">
-        <v>0.307</v>
-      </c>
-      <c r="BM11">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:141" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55045</v>
       </c>
@@ -13245,7 +12705,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>55080</v>
       </c>
@@ -13263,7 +12723,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="14" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>55092</v>
       </c>
@@ -13281,7 +12741,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>55033</v>
       </c>
@@ -13299,7 +12759,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="16" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>55065</v>
       </c>
@@ -16515,8 +15975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB970B2-1977-094C-BE5D-94F9B1F6D2A5}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16724,10 +16184,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA2B63-5622-114D-A9B9-098C10478B40}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16876,6 +16336,112 @@
         <v>427</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
